--- a/src/test/resources/Excel-sheets/SampleExcel.xlsx
+++ b/src/test/resources/Excel-sheets/SampleExcel.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="2265" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="2265" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="EditSBU" sheetId="4" r:id="rId2"/>
     <sheet name="AddSbu" sheetId="5" r:id="rId3"/>
+    <sheet name="add" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I17"/>
+  <oleSize ref="A1:O5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>admin</t>
   </si>
@@ -97,6 +98,9 @@
   </si>
   <si>
     <t>CEMEN</t>
+  </si>
+  <si>
+    <t>CEMENTo</t>
   </si>
 </sst>
 </file>
@@ -655,9 +659,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -669,10 +691,9 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Excel-sheets/SampleExcel.xlsx
+++ b/src/test/resources/Excel-sheets/SampleExcel.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="2265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="2265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="EditSBU" sheetId="4" r:id="rId2"/>
-    <sheet name="AddSbu" sheetId="5" r:id="rId3"/>
-    <sheet name="add" sheetId="6" r:id="rId4"/>
+    <sheet name="EditSBU" sheetId="8" r:id="rId2"/>
+    <sheet name="add" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O5"/>
+  <oleSize ref="A1:I3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>admin</t>
   </si>
@@ -67,9 +66,6 @@
     <t>test</t>
   </si>
   <si>
-    <t>RMC</t>
-  </si>
-  <si>
     <t xml:space="preserve">      </t>
   </si>
   <si>
@@ -79,28 +75,16 @@
     <t>******</t>
   </si>
   <si>
-    <t>CEMENT</t>
-  </si>
-  <si>
-    <t>Sbudgdtwoe</t>
-  </si>
-  <si>
-    <t>Sbuone</t>
-  </si>
-  <si>
-    <t>Sbutwo</t>
-  </si>
-  <si>
     <t>te</t>
   </si>
   <si>
     <t>Sub Business Unit can't be empty</t>
   </si>
   <si>
+    <t>CEMENTo</t>
+  </si>
+  <si>
     <t>CEMEN</t>
-  </si>
-  <si>
-    <t>CEMENTo</t>
   </si>
 </sst>
 </file>
@@ -194,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -206,7 +190,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -522,133 +505,115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="49.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="b">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="b">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="b">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="b">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="b">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="b">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="b">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
-        <v>0</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -667,31 +632,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="b">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
